--- a/docs/Baernreither Schlagwortregister 2022.xlsx
+++ b/docs/Baernreither Schlagwortregister 2022.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="14115" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -261,9 +274,6 @@
     <t>Notstand</t>
   </si>
   <si>
-    <t>Paragraph 14, kaiserliches Notverordnungsrecht</t>
-  </si>
-  <si>
     <t>Reichsrat | Obstruktion</t>
   </si>
   <si>
@@ -357,9 +367,6 @@
     <t>Liberalismus</t>
   </si>
   <si>
-    <t>Russland | Revolution 1905</t>
-  </si>
-  <si>
     <t>Parteien | Großgrundbesitz (beide Parteien)</t>
   </si>
   <si>
@@ -379,16 +386,38 @@
   </si>
   <si>
     <t>Schlagwörter</t>
+  </si>
+  <si>
+    <t>Notverordnungsrecht | Paragraph 14</t>
+  </si>
+  <si>
+    <t>Russland | Russische Revolution 1905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,16 +440,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -441,26 +474,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:A122" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:A122" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="A1:A122"/>
   <sortState ref="A2:A159">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Schlagwörter" dataDxfId="1"/>
+    <tableColumn id="1" name="Schlagwörter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,14 +536,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -532,14 +570,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -566,9 +605,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,624 +781,624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="179" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="1" customFormat="1">
+    <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1">
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
   </sheetData>
@@ -1371,24 +1411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
